--- a/biology/Botanique/Townsendia/Townsendia.xlsx
+++ b/biology/Botanique/Townsendia/Townsendia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Townsendia est un genre de plante à fleurs de la famille des Asteraceae. Ces plantes annuelles ou vivaces sont endémiques de l'Amérique du Nord occidentale. Leurs capitules ont des nuances de rose, de pourpre, de bleu, de blanc ou de jaune. Ce genre contient 21 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Townsendia alpigena Piper
 Townsendia annua Beaman
